--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\netsu\OneDrive\UiPath\REF_CopyrightReg\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\netsuperman\OneDrive\UiPath\REF_CopyrightReg\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -232,10 +232,6 @@
   </si>
   <si>
     <t>hxnce888</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>REF_CopyrightReg</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -377,6 +373,22 @@
   </si>
   <si>
     <t>C:\UiPathProjects\REF_CopyrightReg\Data\Output</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MaxRetryNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出错不重试</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CopyrightRegistration</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -479,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -489,7 +501,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -816,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -873,35 +884,39 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="33.75">
-      <c r="A4" s="7" t="s">
+    <row r="3" spans="1:26" ht="16.5">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>36</v>
-      </c>
+    <row r="4" spans="1:26" ht="16.5">
+      <c r="A4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="17.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>87</v>
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>36</v>
@@ -909,171 +924,173 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>75</v>
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>59</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>57</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>61</v>
@@ -1082,21 +1099,19 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>68</v>
@@ -1104,20 +1119,28 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="4"/>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -1147,7 +1170,9 @@
     <row r="37" spans="3:3" ht="14.25" customHeight="1">
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="38" spans="3:3" ht="14.25" customHeight="1">
+      <c r="C38" s="6"/>
+    </row>
     <row r="39" spans="3:3" ht="14.25" customHeight="1"/>
     <row r="40" spans="3:3" ht="14.25" customHeight="1"/>
     <row r="41" spans="3:3" ht="14.25" customHeight="1"/>
@@ -2109,13 +2134,14 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
-    <hyperlink ref="B17" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B18" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
